--- a/easyexcel-operation/src/test/resources/template/userMapWithTemplate.xlsx
+++ b/easyexcel-operation/src/test/resources/template/userMapWithTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7710"/>
+    <workbookView windowWidth="15315" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+  <si>
+    <t>当前日期</t>
+  </si>
+  <si>
+    <t>{nowDate}</t>
+  </si>
   <si>
     <t>姓名</t>
   </si>
@@ -38,22 +44,77 @@
   </si>
   <si>
     <t>{.birthday}</t>
+  </si>
+  <si>
+    <t>{data.name}</t>
+  </si>
+  <si>
+    <t>{data.age}</t>
+  </si>
+  <si>
+    <t>{data.sex}</t>
+  </si>
+  <si>
+    <t>{data.birthday}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2022-11-06 11:25:11</t>
+  </si>
+  <si>
+    <t>User0</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>User4</t>
+  </si>
+  <si>
+    <t>User5</t>
+  </si>
+  <si>
+    <t>User6</t>
+  </si>
+  <si>
+    <t>User7</t>
+  </si>
+  <si>
+    <t>User8</t>
+  </si>
+  <si>
+    <t>User9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="yyyy-MM-dd HH:mm:ss"/>
   </numFmts>
   <fonts count="24">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -221,10 +282,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
   </fonts>
   <fills count="33">
@@ -532,51 +589,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,94 +640,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -687,10 +744,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1010,206 +1069,333 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="10.25" collapsed="false"/>
     <col min="2" max="2" customWidth="true" width="10.125" collapsed="false"/>
     <col min="3" max="3" customWidth="true" width="9.0" collapsed="false"/>
     <col min="4" max="4" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="20.125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="B1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>User0</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>18.0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="6:7">
+      <c r="A4" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="B4" t="n" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="C4" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>44864.786363506944</v>
+      <c r="D4" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s" s="3">
+        <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>User1</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="5" spans="6:7">
+      <c r="A5" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="C5" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H5" t="n" s="3">
         <v>19.0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="I5" t="n" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="J5" t="n" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="K5" t="n" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="L5" t="n" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="M5" t="n" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="N5" t="n" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="O5" t="n" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="P5" t="n" s="3">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7">
+      <c r="A6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="B6" t="n" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="C6" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>44864.786363506944</v>
+      <c r="D6" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J6" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K6" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="L6" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M6" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="N6" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O6" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P6" t="n" s="3">
+        <v>0.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>User2</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>44864.786363506944</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>User3</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="C6" t="n">
+    <row r="7" spans="6:7">
+      <c r="A7" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="B7" t="n" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="C7" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>44864.786363506944</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>User4</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>44864.786363506944</v>
+      <c r="D7" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="O7" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>User5</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="3" t="n">
         <v>23.0</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>44864.786363506944</v>
+      <c r="C8" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-06 11:25:11</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>User6</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>24.0</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>44864.786363506944</v>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-06 11:25:11</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>User7</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>25.0</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="3" t="n">
         <v>1.0</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>44864.786363506944</v>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-06 11:25:11</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>User8</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="3" t="n">
         <v>26.0</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>44864.786363506944</v>
+      <c r="C11" s="3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-06 11:25:11</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>User9</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="3" t="n">
         <v>27.0</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>44864.786363506944</v>
+      <c r="C12" s="3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-06 11:25:11</t>
+        </is>
       </c>
     </row>
   </sheetData>
